--- a/biology/Botanique/Chèvrefeuille_d'Étrurie/Chèvrefeuille_d'Étrurie.xlsx
+++ b/biology/Botanique/Chèvrefeuille_d'Étrurie/Chèvrefeuille_d'Étrurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_d%27%C3%89trurie</t>
+          <t>Chèvrefeuille_d'Étrurie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera etrusca
 Le Chèvrefeuille d'Étrurie (Lonicera etrusca), également appelé Chèvrefeuille de Toscane, est une plante ligneuse de la famille des Caprifoliacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_d%27%C3%89trurie</t>
+          <t>Chèvrefeuille_d'Étrurie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera etrusca est une plante volubile, vivace, hermaphrodite mesurant de 1 à 4 m.
 Ses fleurs, de 3 à 4 cm de long, sont de couleur blanchâtre ou jaunâtre, teintées de rose pourpre et sont parfumées. La floraison a lieu entre mai et septembre.
